--- a/RSF_Report_2025/R_calc_RSF_2025/Data/nt_ne_mussel beds_2010_2025.xlsx
+++ b/RSF_Report_2025/R_calc_RSF_2025/Data/nt_ne_mussel beds_2010_2025.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Нитчатые водоросли" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Соотношение T и E  в пробах'!$A$1:$F$543</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Соотношение T и E  в пробах'!$A$1:$F$561</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Нитчатые водоросли'!$A$1:$E$189</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="118">
   <si>
     <t>Этот файл содержит данные ревизии, проведенной в 2021-2023 гг</t>
   </si>
@@ -1824,12 +1824,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K561"/>
+  <dimension ref="A1:K573"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A539" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="1" topLeftCell="A545" activePane="bottomLeft" state="frozenSplit"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E556" sqref="E556"/>
+      <selection pane="bottomLeft" activeCell="F574" sqref="F574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.2"/>
@@ -13265,8 +13265,248 @@
         <v>20</v>
       </c>
     </row>
+    <row r="562" spans="1:6">
+      <c r="A562">
+        <v>2025</v>
+      </c>
+      <c r="B562" t="s">
+        <v>110</v>
+      </c>
+      <c r="C562" t="s">
+        <v>116</v>
+      </c>
+      <c r="D562" t="s">
+        <v>23</v>
+      </c>
+      <c r="E562">
+        <v>25</v>
+      </c>
+      <c r="F562">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6">
+      <c r="A563">
+        <v>2025</v>
+      </c>
+      <c r="B563" t="s">
+        <v>111</v>
+      </c>
+      <c r="C563" t="s">
+        <v>116</v>
+      </c>
+      <c r="D563" t="s">
+        <v>23</v>
+      </c>
+      <c r="E563">
+        <v>44</v>
+      </c>
+      <c r="F563">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6">
+      <c r="A564">
+        <v>2025</v>
+      </c>
+      <c r="B564" t="s">
+        <v>112</v>
+      </c>
+      <c r="C564" t="s">
+        <v>116</v>
+      </c>
+      <c r="D564" t="s">
+        <v>23</v>
+      </c>
+      <c r="E564">
+        <v>15</v>
+      </c>
+      <c r="F564">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6">
+      <c r="A565">
+        <v>2025</v>
+      </c>
+      <c r="B565" t="s">
+        <v>113</v>
+      </c>
+      <c r="C565" t="s">
+        <v>116</v>
+      </c>
+      <c r="D565" t="s">
+        <v>23</v>
+      </c>
+      <c r="E565">
+        <v>15</v>
+      </c>
+      <c r="F565">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6">
+      <c r="A566">
+        <v>2025</v>
+      </c>
+      <c r="B566" t="s">
+        <v>114</v>
+      </c>
+      <c r="C566" t="s">
+        <v>116</v>
+      </c>
+      <c r="D566" t="s">
+        <v>23</v>
+      </c>
+      <c r="E566">
+        <v>8</v>
+      </c>
+      <c r="F566">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6">
+      <c r="A567">
+        <v>2025</v>
+      </c>
+      <c r="B567" t="s">
+        <v>115</v>
+      </c>
+      <c r="C567" t="s">
+        <v>116</v>
+      </c>
+      <c r="D567" t="s">
+        <v>23</v>
+      </c>
+      <c r="E567">
+        <v>26</v>
+      </c>
+      <c r="F567">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6">
+      <c r="A568">
+        <v>2025</v>
+      </c>
+      <c r="B568" t="s">
+        <v>110</v>
+      </c>
+      <c r="C568" t="s">
+        <v>116</v>
+      </c>
+      <c r="D568" t="s">
+        <v>27</v>
+      </c>
+      <c r="E568">
+        <v>66</v>
+      </c>
+      <c r="F568">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6">
+      <c r="A569">
+        <v>2025</v>
+      </c>
+      <c r="B569" t="s">
+        <v>111</v>
+      </c>
+      <c r="C569" t="s">
+        <v>116</v>
+      </c>
+      <c r="D569" t="s">
+        <v>27</v>
+      </c>
+      <c r="E569">
+        <v>45</v>
+      </c>
+      <c r="F569">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6">
+      <c r="A570">
+        <v>2025</v>
+      </c>
+      <c r="B570" t="s">
+        <v>112</v>
+      </c>
+      <c r="C570" t="s">
+        <v>116</v>
+      </c>
+      <c r="D570" t="s">
+        <v>27</v>
+      </c>
+      <c r="E570">
+        <v>14</v>
+      </c>
+      <c r="F570">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6">
+      <c r="A571">
+        <v>2025</v>
+      </c>
+      <c r="B571" t="s">
+        <v>113</v>
+      </c>
+      <c r="C571" t="s">
+        <v>116</v>
+      </c>
+      <c r="D571" t="s">
+        <v>27</v>
+      </c>
+      <c r="E571">
+        <v>62</v>
+      </c>
+      <c r="F571">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6">
+      <c r="A572">
+        <v>2025</v>
+      </c>
+      <c r="B572" t="s">
+        <v>114</v>
+      </c>
+      <c r="C572" t="s">
+        <v>116</v>
+      </c>
+      <c r="D572" t="s">
+        <v>27</v>
+      </c>
+      <c r="E572">
+        <v>53</v>
+      </c>
+      <c r="F572">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6">
+      <c r="A573">
+        <v>2025</v>
+      </c>
+      <c r="B573" t="s">
+        <v>115</v>
+      </c>
+      <c r="C573" t="s">
+        <v>116</v>
+      </c>
+      <c r="D573" t="s">
+        <v>27</v>
+      </c>
+      <c r="E573">
+        <v>43</v>
+      </c>
+      <c r="F573">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F543" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:F561" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
